--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b62dc53bd2404d9b/BKLearning/HK242/ES (Embedded System)/ES_02_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{12835353-C75F-4F62-8145-17B835467A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3B8260A-726F-42EB-82CA-74C6FA357FAA}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{12835353-C75F-4F62-8145-17B835467A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E86A6ADC-9F5F-4F30-977B-37CBCA90E0B3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,100 +118,100 @@
     <t>5.2.2</t>
   </si>
   <si>
-    <t>Convenient</t>
-  </si>
-  <si>
-    <t>Dimensions 8 x 15 x 4 cm</t>
-  </si>
-  <si>
-    <t>Case material: Mica/ABS plastic (3D printed)</t>
-  </si>
-  <si>
-    <t>Weight &lt; 300 g</t>
-  </si>
-  <si>
-    <t>Simple, user-friendly interface</t>
-  </si>
-  <si>
-    <t>Single button and numeric buttons</t>
-  </si>
-  <si>
-    <t>Rubber buttons</t>
-  </si>
-  <si>
-    <t>Button latency &lt; 50 ms</t>
-  </si>
-  <si>
-    <t>LCD screen</t>
-  </si>
-  <si>
-    <t>Resolution 128 x 64 px</t>
-  </si>
-  <si>
-    <t>Refresh rate 60 Hz (can be reduced to 1-2 Hz in power-saving mode)</t>
-  </si>
-  <si>
-    <t>Brightness 200 - 500 nits</t>
-  </si>
-  <si>
-    <t>Good battery life</t>
-  </si>
-  <si>
-    <t>Uses lithium-ion battery</t>
-  </si>
-  <si>
-    <t>Charging power 5 W (lithium-ion battery, 5 V - 1 A)</t>
-  </si>
-  <si>
-    <t>Battery capacity 2000 mAh</t>
-  </si>
-  <si>
-    <t>Power consumption &lt; 1 W</t>
-  </si>
-  <si>
-    <t>Power-saving mode available</t>
-  </si>
-  <si>
-    <t>Screen turns off after 10 seconds of inactivity</t>
-  </si>
-  <si>
-    <t>Screen brightness reduced by approximately 30-50%</t>
-  </si>
-  <si>
-    <t>Refresh rate reduced to 1-2 Hz</t>
-  </si>
-  <si>
-    <t>Displays accurate time information</t>
-  </si>
-  <si>
-    <t>Displays hours, minutes, (seconds)</t>
-  </si>
-  <si>
-    <t>Time deviation &lt; 5 seconds/month</t>
-  </si>
-  <si>
-    <t>Uses RTC (Real-Time Clock)</t>
-  </si>
-  <si>
-    <t>Displays day of the week, day, month, year: Lunar and Solar calendars</t>
-  </si>
-  <si>
-    <t>Alarm function</t>
-  </si>
-  <si>
-    <t>Stores up to 10 alarms</t>
-  </si>
-  <si>
-    <t>Alarms are maintained even when the battery is depleted</t>
-  </si>
-  <si>
-    <t>Integrated speaker</t>
-  </si>
-  <si>
-    <t>Small speaker 1 - 3W</t>
-  </si>
-  <si>
-    <t>Volume &gt; 70 dB</t>
+    <t>The clock must be compact and portable.</t>
+  </si>
+  <si>
+    <t>The dimensions of the clock shall be 8 cm x 15 cm x 4 cm.</t>
+  </si>
+  <si>
+    <t>The clock case shall be made of Mica or ABS plastic (3D printed).</t>
+  </si>
+  <si>
+    <t>The total weight of the device shall not exceed 300 g.</t>
+  </si>
+  <si>
+    <t>The clock must have an intuitive and accessible user interface.</t>
+  </si>
+  <si>
+    <t>The clock shall include buttons and numeric buttons for operation.</t>
+  </si>
+  <si>
+    <t>The buttons shall be made of rubber for better tactile feedback.</t>
+  </si>
+  <si>
+    <t>The button response time shall be &lt; 50 ms.</t>
+  </si>
+  <si>
+    <t>The clock shall have an LCD screen for displaying time and other information.</t>
+  </si>
+  <si>
+    <t>The LCD screen shall operate at 60 Hz refresh rate (reduced to 1-2 Hz in power-saving mode).</t>
+  </si>
+  <si>
+    <t>The LCD screen brightness shall range between 200 - 500 nits.</t>
+  </si>
+  <si>
+    <t>The LCD screen resolution shall be 296 × 128 px.</t>
+  </si>
+  <si>
+    <t>The clock must have long battery life and low power consumption.</t>
+  </si>
+  <si>
+    <t>The clock shall use a lithium-ion battery.</t>
+  </si>
+  <si>
+    <t>The charging power shall be 5 W (5 V - 1 A).</t>
+  </si>
+  <si>
+    <t>The battery capacity shall be 2000 mAh.</t>
+  </si>
+  <si>
+    <t>The total power consumption shall be &lt; 1 W.</t>
+  </si>
+  <si>
+    <t>A power-saving mode shall be available.</t>
+  </si>
+  <si>
+    <t>The LCD screen shall turn off after 10 seconds of inactivity.</t>
+  </si>
+  <si>
+    <t>The screen brightness shall be reduced by approximately 30-50% when needed.</t>
+  </si>
+  <si>
+    <t>The screen refresh rate shall be reduced to 1-2 Hz in power-saving mode.</t>
+  </si>
+  <si>
+    <t>The clock must display accurate time information.</t>
+  </si>
+  <si>
+    <t>The clock shall display hours, minutes, and seconds.</t>
+  </si>
+  <si>
+    <t>The time deviation shall be &lt; 5 seconds per month.</t>
+  </si>
+  <si>
+    <t>The clock shall use an RTC (Real-Time Clock) module to maintain accurate time.</t>
+  </si>
+  <si>
+    <t>The clock shall display the day of the week, date, month, and year.</t>
+  </si>
+  <si>
+    <t>The clock must support an alarm function.</t>
+  </si>
+  <si>
+    <t>The clock shall allow storing up to 10 alarms.</t>
+  </si>
+  <si>
+    <t>The alarms shall be retained even when the battery is depleted.</t>
+  </si>
+  <si>
+    <t>The clock shall include an integrated speaker.</t>
+  </si>
+  <si>
+    <t>The speaker shall be 1 - 3W.</t>
+  </si>
+  <si>
+    <t>The speaker volume shall be &gt; 70 dB.</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -597,7 +597,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -605,7 +605,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -88,7 +88,7 @@
     <t>The LCD screen brightness shall range between 200 - 500 nits.</t>
   </si>
   <si>
-    <t>test</t>
+    <t/>
   </si>
   <si>
     <t>3</t>
@@ -216,7 +216,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +242,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -272,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,17 +301,20 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,8 +624,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="84.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="84.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -721,7 +730,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -842,8 +851,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
